--- a/biology/Histoire de la zoologie et de la botanique/John_Kirk/John_Kirk.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Kirk/John_Kirk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sir John Kirk est un explorateur, un médecin, un naturaliste  britannique, né le 19 décembre 1832 à Barry, près d’Arbroath (Écosse) et mort le 15 janvier 1922.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé de médecine à l’université d'Édimbourg. Il participe à l’expédition de David Livingstone (1813-1873) en 1858 sur la côte du Mozambique pour reconnaître le bassin du Zambèze et à la mort de Livingstone lui succède dans la lutte contre l'esclavage.
 Revenu épuisé en Europe en 1863, il devient ensuite consul de Zanzibar de 1866 à 1886. John Kirk est devenu membre de la Royal Society le 9 juin 1887 et membre honoraire de la Zoological Society of London en 1888.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>'Account of the Zambezi District, in South Africa, with a Notice of Its Vegetable and Other Products', Transactions of the Botanical Society (1864), 8, 197-202....
 'Ascent of the Rovuma', Proceedings of the Royal Geographical Society of London (1864-1865), 9, 284-8.
